--- a/Line Production December 2023.xlsx
+++ b/Line Production December 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2bff73b0ba30a6b9/Dokumen/GitHub/OR programming assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_264C7E0A8E251D02E61BEFD3885DE81339901F68" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96E9499C-D1B5-4D74-899D-9EA5D3B92EDC}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_264C7E0A8E251D02E61BEFD3885DE81339901F68" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F093F01E-427E-4669-A77F-A77A5F702962}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -498,7 +498,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="J2" sqref="A2:J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1821,6 +1821,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010013B620F01982514694878B55267266B0" ma:contentTypeVersion="11" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="cc31558d369f2b18f4665515cc568258">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="882bdec5-c3ce-4705-9a84-58ed8ad203ea" xmlns:ns3="c6fe3531-949f-4c96-ac1d-b793c48e3f25" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f1c0ceaf010dca137c910c274b4031a0" ns2:_="" ns3:_="">
     <xsd:import namespace="882bdec5-c3ce-4705-9a84-58ed8ad203ea"/>
@@ -2023,22 +2038,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A1CB7BC-C52F-44D0-AD38-9184B592C6F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="c6fe3531-949f-4c96-ac1d-b793c48e3f25"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="882bdec5-c3ce-4705-9a84-58ed8ad203ea"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35C8D400-3C79-4C0A-91A1-221C0DB88FB9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94A06C80-BE10-4E0C-BC2F-0B9FAA9BC96A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2055,29 +2080,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A1CB7BC-C52F-44D0-AD38-9184B592C6F5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="c6fe3531-949f-4c96-ac1d-b793c48e3f25"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="882bdec5-c3ce-4705-9a84-58ed8ad203ea"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35C8D400-3C79-4C0A-91A1-221C0DB88FB9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>